--- a/Estadisticas/Total_Data_Estados.xlsx
+++ b/Estadisticas/Total_Data_Estados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DagoP\Desktop\Mapa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapa-COVID19\Estadisticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF07B9-9536-42AE-915B-B9FB44AEFBAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C84383-5C5D-4581-9D55-16D7601C2A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>Muertes</t>
   </si>
@@ -49,30 +49,33 @@
     <t>pendientes_cambio</t>
   </si>
   <si>
-    <t>flecha</t>
+    <t>Confirmados_cambio_flecha</t>
+  </si>
+  <si>
+    <t>Muertes_Cambio_flecha</t>
+  </si>
+  <si>
+    <t>pendientes_cambio_flecha</t>
   </si>
   <si>
     <t>AGUASCALIENTES</t>
   </si>
   <si>
-    <t>-24</t>
+    <t>22.006446</t>
+  </si>
+  <si>
+    <t>-102.361932</t>
+  </si>
+  <si>
+    <t>▲</t>
   </si>
   <si>
     <t>▼</t>
   </si>
   <si>
-    <t>22.006446</t>
-  </si>
-  <si>
-    <t>-102.361932</t>
-  </si>
-  <si>
     <t>BAJA CALIFORNIA</t>
   </si>
   <si>
-    <t>-109</t>
-  </si>
-  <si>
     <t>30.553187000000001</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>BAJA CALIFORNIA SUR</t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
     <t>25.920203999999998</t>
   </si>
   <si>
@@ -94,12 +94,6 @@
     <t>CAMPECHE</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>▲</t>
-  </si>
-  <si>
     <t>18.847577999999999</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>COAHUILA DE ZARAGOZA</t>
   </si>
   <si>
-    <t>-29</t>
-  </si>
-  <si>
     <t>27.292213</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>COLIMA</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>19.130725999999999</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>CHIAPAS</t>
   </si>
   <si>
-    <t>-18</t>
-  </si>
-  <si>
     <t>16.486861999999999</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>CHIHUAHUA</t>
   </si>
   <si>
-    <t>-50</t>
-  </si>
-  <si>
     <t>28.806677000000001</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>CIUDAD DE MÉXICO</t>
   </si>
   <si>
-    <t>-779</t>
-  </si>
-  <si>
     <t>19.276909</t>
   </si>
   <si>
@@ -169,9 +148,6 @@
     <t>DURANGO</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>24.923013000000001</t>
   </si>
   <si>
@@ -181,9 +157,6 @@
     <t>GUANAJUATO</t>
   </si>
   <si>
-    <t>-166</t>
-  </si>
-  <si>
     <t>20.905642</t>
   </si>
   <si>
@@ -193,9 +166,6 @@
     <t>GUERRERO</t>
   </si>
   <si>
-    <t>-7</t>
-  </si>
-  <si>
     <t>17.667432000000002</t>
   </si>
   <si>
@@ -205,9 +175,6 @@
     <t>HIDALGO</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>20.479558000000001</t>
   </si>
   <si>
@@ -217,9 +184,6 @@
     <t>JALISCO</t>
   </si>
   <si>
-    <t>-176</t>
-  </si>
-  <si>
     <t>20.585349000000001</t>
   </si>
   <si>
@@ -229,9 +193,6 @@
     <t>MÉXICO</t>
   </si>
   <si>
-    <t>-98</t>
-  </si>
-  <si>
     <t>19.355909</t>
   </si>
   <si>
@@ -241,9 +202,6 @@
     <t>MICHOACÁN DE OCAMPO</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>19.204402999999999</t>
   </si>
   <si>
@@ -253,9 +211,6 @@
     <t>MORELOS</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>18.742054</t>
   </si>
   <si>
@@ -265,9 +220,6 @@
     <t>NAYARIT</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>21.802132</t>
   </si>
   <si>
@@ -277,9 +229,6 @@
     <t>NUEVO LEÓN</t>
   </si>
   <si>
-    <t>-142</t>
-  </si>
-  <si>
     <t>25.572568</t>
   </si>
   <si>
@@ -289,9 +238,6 @@
     <t>OAXACA</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>16.963566</t>
   </si>
   <si>
@@ -301,9 +247,6 @@
     <t>PUEBLA</t>
   </si>
   <si>
-    <t>-35</t>
-  </si>
-  <si>
     <t>19.006070999999999</t>
   </si>
   <si>
@@ -313,9 +256,6 @@
     <t>QUERÉTARO</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>20.855201000000001</t>
   </si>
   <si>
@@ -325,9 +265,6 @@
     <t>QUINTANA ROO</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>19.636583999999999</t>
   </si>
   <si>
@@ -337,9 +274,6 @@
     <t>SAN LUIS POTOSÍ</t>
   </si>
   <si>
-    <t>-27</t>
-  </si>
-  <si>
     <t>22.585535</t>
   </si>
   <si>
@@ -349,9 +283,6 @@
     <t>SINALOA</t>
   </si>
   <si>
-    <t>-77</t>
-  </si>
-  <si>
     <t>24.993342999999999</t>
   </si>
   <si>
@@ -361,9 +292,6 @@
     <t>SONORA</t>
   </si>
   <si>
-    <t>-25</t>
-  </si>
-  <si>
     <t>29.694481</t>
   </si>
   <si>
@@ -373,9 +301,6 @@
     <t>TABASCO</t>
   </si>
   <si>
-    <t>-106</t>
-  </si>
-  <si>
     <t>17.935048999999999</t>
   </si>
   <si>
@@ -385,9 +310,6 @@
     <t>TAMAULIPAS</t>
   </si>
   <si>
-    <t>-95</t>
-  </si>
-  <si>
     <t>24.267520000000001</t>
   </si>
   <si>
@@ -406,9 +328,6 @@
     <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
   </si>
   <si>
-    <t>-15</t>
-  </si>
-  <si>
     <t>19.368169999999999</t>
   </si>
   <si>
@@ -418,9 +337,6 @@
     <t>YUCATÁN</t>
   </si>
   <si>
-    <t>-64</t>
-  </si>
-  <si>
     <t>20.763829000000001</t>
   </si>
   <si>
@@ -430,9 +346,6 @@
     <t>ZACATECAS</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>23.289000000000001</t>
   </si>
   <si>
@@ -442,9 +355,6 @@
     <t>ESTADOS UNIDOS MEXICANOS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>27.33333</t>
   </si>
   <si>
@@ -478,13 +388,13 @@
     <t>-99.130718000000002</t>
   </si>
   <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>LON</t>
   </si>
 </sst>
 </file>
@@ -528,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -549,6 +459,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -877,17 +793,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -917,178 +833,211 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="H2" s="6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-37</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>252</v>
+      </c>
+      <c r="C3" s="4">
+        <v>682</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1808</v>
+      </c>
+      <c r="H3" s="6">
+        <v>148</v>
+      </c>
+      <c r="I3" s="7">
         <v>13</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>239</v>
-      </c>
-      <c r="C3" s="4">
-        <v>760</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1660</v>
-      </c>
-      <c r="H3" s="6">
-        <v>78</v>
-      </c>
-      <c r="I3" s="7">
-        <v>3</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="8">
+        <v>-78</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>18</v>
       </c>
       <c r="C4" s="4">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>9</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H5" s="6">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>7</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4">
+        <v>289</v>
+      </c>
+      <c r="F6" s="5">
+        <v>476</v>
+      </c>
+      <c r="H6" s="6">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="J6" s="8">
+        <v>-22</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="L6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4">
-        <v>311</v>
-      </c>
-      <c r="F6" s="5">
-        <v>453</v>
-      </c>
-      <c r="H6" s="6">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="M6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -1097,126 +1046,144 @@
         <v>23</v>
       </c>
       <c r="F7" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5">
+        <v>231</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4">
+        <v>320</v>
+      </c>
+      <c r="F9" s="5">
+        <v>532</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="J9" s="8">
+        <v>9</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5">
-        <v>227</v>
-      </c>
-      <c r="H8" s="6">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="L9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="M9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="B10" s="3">
+        <v>407</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3193</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6785</v>
+      </c>
+      <c r="H10" s="6">
+        <v>368</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20</v>
+      </c>
+      <c r="J10" s="8">
+        <v>-24</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="L10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3">
-        <v>91</v>
-      </c>
-      <c r="C9" s="4">
-        <v>311</v>
-      </c>
-      <c r="F9" s="5">
-        <v>512</v>
-      </c>
-      <c r="H9" s="6">
-        <v>60</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="M10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3">
-        <v>387</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3217</v>
-      </c>
-      <c r="F10" s="5">
-        <v>6417</v>
-      </c>
-      <c r="H10" s="6">
-        <v>404</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
@@ -1225,135 +1192,153 @@
         <v>114</v>
       </c>
       <c r="F11" s="5">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H11" s="6">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4">
+        <v>538</v>
+      </c>
+      <c r="F12" s="5">
+        <v>315</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="J12" s="8">
+        <v>-9</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4">
+        <v>196</v>
+      </c>
+      <c r="F13" s="5">
+        <v>366</v>
+      </c>
+      <c r="H13" s="6">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>45</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="M13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="B14" s="3">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4">
+        <v>153</v>
+      </c>
+      <c r="F14" s="5">
+        <v>334</v>
+      </c>
+      <c r="H14" s="6">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>15</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="L14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4">
-        <v>547</v>
-      </c>
-      <c r="F12" s="5">
-        <v>308</v>
-      </c>
-      <c r="H12" s="6">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="M14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3">
-        <v>52</v>
-      </c>
-      <c r="C13" s="4">
-        <v>151</v>
-      </c>
-      <c r="F13" s="5">
-        <v>342</v>
-      </c>
-      <c r="H13" s="6">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="3">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4">
-        <v>138</v>
-      </c>
-      <c r="F14" s="5">
-        <v>312</v>
-      </c>
-      <c r="H14" s="6">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="B15" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="F15" s="5">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="H15" s="6">
         <v>30</v>
@@ -1361,598 +1346,706 @@
       <c r="I15" s="7">
         <v>1</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="8">
+        <v>-92</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3">
+        <v>299</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3707</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4202</v>
+      </c>
+      <c r="H16" s="6">
+        <v>309</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8">
+        <v>366</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4">
+        <v>207</v>
+      </c>
+      <c r="F17" s="5">
+        <v>375</v>
+      </c>
+      <c r="H17" s="6">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8">
+        <v>30</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4">
+        <v>174</v>
+      </c>
+      <c r="F18" s="5">
+        <v>501</v>
+      </c>
+      <c r="H18" s="6">
+        <v>71</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9</v>
+      </c>
+      <c r="J18" s="8">
+        <v>-5</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3">
-        <v>284</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3341</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3893</v>
-      </c>
-      <c r="H16" s="6">
-        <v>278</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="3">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4">
-        <v>177</v>
-      </c>
-      <c r="F17" s="5">
-        <v>369</v>
-      </c>
-      <c r="H17" s="6">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>179</v>
-      </c>
-      <c r="F18" s="5">
-        <v>430</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="I18" s="7">
-        <v>3</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="C19" s="4">
         <v>78</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="3">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4">
-        <v>80</v>
-      </c>
       <c r="F19" s="5">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H19" s="6">
         <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>-2</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>379</v>
+      </c>
+      <c r="F20" s="5">
+        <v>442</v>
+      </c>
+      <c r="H20" s="6">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3</v>
+      </c>
+      <c r="J20" s="8">
+        <v>-3</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4">
-        <v>382</v>
-      </c>
-      <c r="F20" s="5">
-        <v>418</v>
-      </c>
-      <c r="H20" s="6">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="3">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4">
-        <v>77</v>
-      </c>
       <c r="F21" s="5">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H21" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>89</v>
+      <c r="J21" s="8">
+        <v>6</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="F22" s="5">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="H22" s="6">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>10</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="J22" s="8">
+        <v>18</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H23" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>97</v>
+      <c r="J23" s="8">
+        <v>-1</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F24" s="5">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="H24" s="6">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>2</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>46</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F25" s="5">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H25" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
+        <v>16</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C26" s="4">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="F26" s="5">
-        <v>1119</v>
+        <v>1161</v>
       </c>
       <c r="H26" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="7">
-        <v>7</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="J26" s="8">
+        <v>31</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3">
         <v>24</v>
       </c>
       <c r="C27" s="4">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F27" s="5">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="H27" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I27" s="7">
         <v>0</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>113</v>
+      <c r="J27" s="8">
+        <v>15</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C28" s="4">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F28" s="5">
-        <v>1196</v>
+        <v>1247</v>
       </c>
       <c r="H28" s="6">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="I28" s="7">
+        <v>11</v>
+      </c>
+      <c r="J28" s="8">
+        <v>-18</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4">
+        <v>319</v>
+      </c>
+      <c r="F29" s="5">
+        <v>388</v>
+      </c>
+      <c r="H29" s="6">
         <v>8</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="3">
-        <v>22</v>
-      </c>
-      <c r="C29" s="4">
-        <v>264</v>
-      </c>
-      <c r="F29" s="5">
-        <v>380</v>
-      </c>
-      <c r="H29" s="6">
-        <v>18</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>121</v>
+      <c r="J29" s="8">
+        <v>55</v>
       </c>
       <c r="K29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4">
+        <v>88</v>
+      </c>
+      <c r="F30" s="5">
+        <v>250</v>
+      </c>
+      <c r="H30" s="6">
         <v>12</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="3">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4">
-        <v>73</v>
-      </c>
-      <c r="F30" s="5">
-        <v>238</v>
-      </c>
-      <c r="H30" s="6">
-        <v>9</v>
-      </c>
       <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="J30" s="8">
+        <v>15</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F31" s="5">
-        <v>705</v>
+        <v>803</v>
       </c>
       <c r="H31" s="6">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I31" s="7">
-        <v>5</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>128</v>
+        <v>4</v>
+      </c>
+      <c r="J31" s="8">
+        <v>-18</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" s="4">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="F32" s="5">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="H32" s="6">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>94</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="3">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5">
+        <v>110</v>
+      </c>
+      <c r="H33" s="6">
+        <v>11</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="3">
-        <v>13</v>
-      </c>
-      <c r="C33" s="4">
-        <v>41</v>
-      </c>
-      <c r="F33" s="5">
-        <v>99</v>
-      </c>
-      <c r="H33" s="6">
-        <v>5</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="K33" s="9" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -1966,19 +2059,19 @@
       <c r="I34" s="7">
         <v>0</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>140</v>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -1992,19 +2085,19 @@
       <c r="I35" s="7">
         <v>0</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>140</v>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -2018,19 +2111,19 @@
       <c r="I36" s="7">
         <v>0</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>140</v>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -2044,14 +2137,14 @@
       <c r="I37" s="7">
         <v>0</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>140</v>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
